--- a/Encodage des Float.xlsx
+++ b/Encodage des Float.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22040" yWindow="6200" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="5140" yWindow="3340" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>sign</t>
   </si>
@@ -48,6 +48,72 @@
   </si>
   <si>
     <t>Inf</t>
+  </si>
+  <si>
+    <t>Normalized</t>
+  </si>
+  <si>
+    <t>Denormalized</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>exponent</t>
+  </si>
+  <si>
+    <t>mantissa</t>
+  </si>
+  <si>
+    <t>max value</t>
+  </si>
+  <si>
+    <t>0 &gt; value &gt; max value</t>
+  </si>
+  <si>
+    <t>any value</t>
+  </si>
+  <si>
+    <t>0 (zero)</t>
+  </si>
+  <si>
+    <t>&gt; 0</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>(mantissa / 2^numMantissaBits) x 2^(1 + 1 - 2^(numExponentBits - 1))</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>(1 + mantissa / 2^numMantissaBits) x 2^(exponent + 1 - 2^(numExponentBits - 1))</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign bits </t>
+  </si>
+  <si>
+    <t>exponent bits</t>
+  </si>
+  <si>
+    <t>mantissa bits</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>long double</t>
   </si>
 </sst>
 </file>
@@ -55,8 +121,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="000"/>
-    <numFmt numFmtId="167" formatCode="00"/>
+    <numFmt numFmtId="164" formatCode="000"/>
+    <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -67,15 +133,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -83,21 +155,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
   </cellXfs>
@@ -112,6 +255,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="L2:O6" totalsRowShown="0">
+  <autoFilter ref="L2:O6">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="exponent"/>
+    <tableColumn id="3" name="mantissa"/>
+    <tableColumn id="4" name="usage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,1121 +538,1242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K40"/>
+  <dimension ref="B2:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="67.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="J2" s="5"/>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G7" si="0">IF(D4&lt;1,1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H7" si="1">BIN2DEC(E4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I7" si="2">BIN2DEC(F4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>G4*(IF(H4=0,0,1)+I4/2^$B$6)*2^(IF(H4=0,1,H4)+1-2^($B$5-1))</f>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K7" si="3">_xlfn.FLOOR.PRECISE(J4,0.1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F6" si="0">IF(C3&lt;1,1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G6" si="1">BIN2DEC(D3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H6" si="2">BIN2DEC(E3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>F3*(IF(G3=0,0,1)+H3/2^$M$11)*2^(IF(G3=0,1,G3)+1-2^($M$10-1))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J6" si="3">_xlfn.FLOOR.PRECISE(I3,0.1)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J5">
-        <f>G5*(IF(H5=0,0,1)+I5/2^$B$6)*2^(IF(H5=0,1,H5)+1-2^($B$5-1))</f>
+      <c r="I4" s="6">
+        <f>F4*(IF(G4=0,0,1)+H4/2^$M$11)*2^(IF(G4=0,1,G4)+1-2^($M$10-1))</f>
         <v>6.25E-2</v>
       </c>
-      <c r="K5">
+      <c r="J4" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="H5" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J6">
-        <f>G6*(IF(H6=0,0,1)+I6/2^$B$6)*2^(IF(H6=0,1,H6)+1-2^($B$5-1))</f>
+      <c r="I5" s="6">
+        <f>F5*(IF(G5=0,0,1)+H5/2^$M$11)*2^(IF(G5=0,1,G5)+1-2^($M$10-1))</f>
         <v>0.125</v>
       </c>
-      <c r="K6">
+      <c r="J5" s="6">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C7" s="5"/>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
         <v>11</v>
       </c>
-      <c r="G7">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J7">
-        <f>G7*(IF(H7=0,0,1)+I7/2^$B$6)*2^(IF(H7=0,1,H7)+1-2^($B$5-1))</f>
+      <c r="I6" s="6">
+        <f>F6*(IF(G6=0,0,1)+H6/2^$M$11)*2^(IF(G6=0,1,G6)+1-2^($M$10-1))</f>
         <v>0.1875</v>
       </c>
-      <c r="K7">
+      <c r="J6" s="6">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="5" t="s">
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f>IF(D8&lt;1,1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <f>BIN2DEC(E8)</f>
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <f>BIN2DEC(F8)</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>G8*(IF(H8=0,0,1)+I8/2^$B$6)*2^(IF(H8=0,1,H8)+1-2^($B$5-1))</f>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <f>IF(C7&lt;1,1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <f>BIN2DEC(D7)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <f>BIN2DEC(E7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <f>F7*(IF(G7=0,0,1)+H7/2^$M$11)*2^(IF(G7=0,1,G7)+1-2^($M$10-1))</f>
         <v>0.25</v>
       </c>
-      <c r="K8">
-        <f>_xlfn.FLOOR.PRECISE(J8,0.1)</f>
+      <c r="J7" s="6">
+        <f>_xlfn.FLOOR.PRECISE(I7,0.1)</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="5"/>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G26" si="4">IF(D9&lt;1,1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ref="H9:H26" si="5">BIN2DEC(E9)</f>
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ref="I9:I26" si="6">BIN2DEC(F9)</f>
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <f>G9*(IF(H9=0,0,1)+I9/2^$B$6)*2^(IF(H9=0,1,H9)+1-2^($B$5-1))</f>
+    <row r="8" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ref="F8:F25" si="4">IF(C8&lt;1,1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" ref="G8:G25" si="5">BIN2DEC(D8)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" ref="H8:H25" si="6">BIN2DEC(E8)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <f>F8*(IF(G8=0,0,1)+H8/2^$M$11)*2^(IF(G8=0,1,G8)+1-2^($M$10-1))</f>
         <v>0.3125</v>
       </c>
-      <c r="K9">
-        <f t="shared" ref="K9:K35" si="7">_xlfn.FLOOR.PRECISE(J9,0.1)</f>
+      <c r="J8" s="6">
+        <f t="shared" ref="J8:J34" si="7">_xlfn.FLOOR.PRECISE(I8,0.1)</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="5"/>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="F9" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="G9" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="H9" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J10">
-        <f>G10*(IF(H10=0,0,1)+I10/2^$B$6)*2^(IF(H10=0,1,H10)+1-2^($B$5-1))</f>
+      <c r="I9" s="6">
+        <f>F9*(IF(G9=0,0,1)+H9/2^$M$11)*2^(IF(G9=0,1,G9)+1-2^($M$10-1))</f>
         <v>0.375</v>
       </c>
-      <c r="K10">
+      <c r="J9" s="6">
         <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C11" s="5"/>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
         <v>11</v>
       </c>
-      <c r="G11">
+      <c r="F10" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="G10" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="H10" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J11">
-        <f>G11*(IF(H11=0,0,1)+I11/2^$B$6)*2^(IF(H11=0,1,H11)+1-2^($B$5-1))</f>
+      <c r="I10" s="6">
+        <f>F10*(IF(G10=0,0,1)+H10/2^$M$11)*2^(IF(G10=0,1,G10)+1-2^($M$10-1))</f>
         <v>0.4375</v>
       </c>
-      <c r="K11">
+      <c r="J10" s="6">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C12" s="5"/>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="L10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
         <v>10</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="G11" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I12">
+      <c r="H11" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J12">
-        <f>G12*(IF(H12=0,0,1)+I12/2^$B$6)*2^(IF(H12=0,1,H12)+1-2^($B$5-1))</f>
+      <c r="I11" s="6">
+        <f>F11*(IF(G11=0,0,1)+H11/2^$M$11)*2^(IF(G11=0,1,G11)+1-2^($M$10-1))</f>
         <v>0.5</v>
       </c>
-      <c r="K12">
+      <c r="J11" s="6">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="5"/>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="L11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
         <v>10</v>
       </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="G12" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I13">
+      <c r="H12" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J13">
-        <f>G13*(IF(H13=0,0,1)+I13/2^$B$6)*2^(IF(H13=0,1,H13)+1-2^($B$5-1))</f>
+      <c r="I12" s="6">
+        <f>F12*(IF(G12=0,0,1)+H12/2^$M$11)*2^(IF(G12=0,1,G12)+1-2^($M$10-1))</f>
         <v>0.625</v>
       </c>
-      <c r="K13">
+      <c r="J12" s="6">
         <f t="shared" si="7"/>
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C14" s="5"/>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
         <v>10</v>
       </c>
-      <c r="F14" s="2">
+      <c r="E13" s="8">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="F13" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="G13" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="H13" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J14">
-        <f>G14*(IF(H14=0,0,1)+I14/2^$B$6)*2^(IF(H14=0,1,H14)+1-2^($B$5-1))</f>
+      <c r="I13" s="6">
+        <f>F13*(IF(G13=0,0,1)+H13/2^$M$11)*2^(IF(G13=0,1,G13)+1-2^($M$10-1))</f>
         <v>0.75</v>
       </c>
-      <c r="K14">
+      <c r="J13" s="6">
         <f t="shared" si="7"/>
         <v>0.70000000000000007</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="5"/>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="L13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="13"/>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
         <v>10</v>
       </c>
-      <c r="F15" s="2">
+      <c r="E14" s="8">
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="F14" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="G14" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I15">
+      <c r="H14" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J15">
-        <f>G15*(IF(H15=0,0,1)+I15/2^$B$6)*2^(IF(H15=0,1,H15)+1-2^($B$5-1))</f>
+      <c r="I14" s="6">
+        <f>F14*(IF(G14=0,0,1)+H14/2^$M$11)*2^(IF(G14=0,1,G14)+1-2^($M$10-1))</f>
         <v>0.875</v>
       </c>
-      <c r="K15">
+      <c r="J14" s="6">
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="5"/>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="L14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6">
+        <v>8</v>
+      </c>
+      <c r="O14" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="13"/>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
         <v>11</v>
       </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="G15" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="H15" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J16">
-        <f>G16*(IF(H16=0,0,1)+I16/2^$B$6)*2^(IF(H16=0,1,H16)+1-2^($B$5-1))</f>
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C17" s="5"/>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="I15" s="6">
+        <f>F15*(IF(G15=0,0,1)+H15/2^$M$11)*2^(IF(G15=0,1,G15)+1-2^($M$10-1))</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
         <v>11</v>
       </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="O15" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="13"/>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="G16" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I17">
+      <c r="H16" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J17">
-        <f>G17*(IF(H17=0,0,1)+I17/2^$B$6)*2^(IF(H17=0,1,H17)+1-2^($B$5-1))</f>
+      <c r="I16" s="6">
+        <f>F16*(IF(G16=0,0,1)+H16/2^$M$11)*2^(IF(G16=0,1,G16)+1-2^($M$10-1))</f>
         <v>1.25</v>
       </c>
-      <c r="K17">
+      <c r="J16" s="6">
         <f t="shared" si="7"/>
         <v>1.2000000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C18" s="5"/>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="L16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
+        <v>15</v>
+      </c>
+      <c r="O16" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="13"/>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
         <v>11</v>
       </c>
-      <c r="F18" s="2">
+      <c r="E17" s="8">
         <v>10</v>
       </c>
-      <c r="G18">
+      <c r="F17" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="G17" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I18">
+      <c r="H17" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J18">
-        <f>G18*(IF(H18=0,0,1)+I18/2^$B$6)*2^(IF(H18=0,1,H18)+1-2^($B$5-1))</f>
+      <c r="I17" s="6">
+        <f>F17*(IF(G17=0,0,1)+H17/2^$M$11)*2^(IF(G17=0,1,G17)+1-2^($M$10-1))</f>
         <v>1.5</v>
       </c>
-      <c r="K18">
+      <c r="J17" s="6">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C19" s="5"/>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
         <v>11</v>
       </c>
-      <c r="F19" s="2">
+      <c r="E18" s="8">
         <v>11</v>
       </c>
-      <c r="G19">
+      <c r="F18" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="G18" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I19">
+      <c r="H18" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J19">
-        <f>G19*(IF(H19=0,0,1)+I19/2^$B$6)*2^(IF(H19=0,1,H19)+1-2^($B$5-1))</f>
+      <c r="I18" s="6">
+        <f>F18*(IF(G18=0,0,1)+H18/2^$M$11)*2^(IF(G18=0,1,G18)+1-2^($M$10-1))</f>
         <v>1.75</v>
       </c>
-      <c r="K19">
+      <c r="J18" s="6">
         <f t="shared" si="7"/>
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C20" s="5"/>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
         <v>100</v>
       </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I20">
+      <c r="H19" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20">
-        <f>G20*(IF(H20=0,0,1)+I20/2^$B$6)*2^(IF(H20=0,1,H20)+1-2^($B$5-1))</f>
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="I19" s="6">
+        <f>F19*(IF(G19=0,0,1)+H19/2^$M$11)*2^(IF(G19=0,1,G19)+1-2^($M$10-1))</f>
+        <v>-2</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
         <v>100</v>
       </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="G20" s="6">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I21">
+      <c r="H20" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J21">
-        <f>G21*(IF(H21=0,0,1)+I21/2^$B$6)*2^(IF(H21=0,1,H21)+1-2^($B$5-1))</f>
+      <c r="I20" s="6">
+        <f>F20*(IF(G20=0,0,1)+H20/2^$M$11)*2^(IF(G20=0,1,G20)+1-2^($M$10-1))</f>
         <v>2.5</v>
       </c>
-      <c r="K21">
+      <c r="J20" s="6">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C22" s="5"/>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="13"/>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
         <v>100</v>
       </c>
-      <c r="F22" s="2">
+      <c r="E21" s="8">
         <v>10</v>
       </c>
-      <c r="G22">
+      <c r="F21" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="G21" s="6">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I22">
+      <c r="H21" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J22">
-        <f>G22*(IF(H22=0,0,1)+I22/2^$B$6)*2^(IF(H22=0,1,H22)+1-2^($B$5-1))</f>
+      <c r="I21" s="6">
+        <f>F21*(IF(G21=0,0,1)+H21/2^$M$11)*2^(IF(G21=0,1,G21)+1-2^($M$10-1))</f>
         <v>3</v>
       </c>
-      <c r="K22">
+      <c r="J21" s="6">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C23" s="5"/>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
         <v>100</v>
       </c>
-      <c r="F23" s="2">
+      <c r="E22" s="8">
         <v>11</v>
       </c>
-      <c r="G23">
+      <c r="F22" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="G22" s="6">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I23">
+      <c r="H22" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J23">
-        <f>G23*(IF(H23=0,0,1)+I23/2^$B$6)*2^(IF(H23=0,1,H23)+1-2^($B$5-1))</f>
+      <c r="I22" s="6">
+        <f>F22*(IF(G22=0,0,1)+H22/2^$M$11)*2^(IF(G22=0,1,G22)+1-2^($M$10-1))</f>
         <v>3.5</v>
       </c>
-      <c r="K23">
+      <c r="J22" s="6">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C24" s="5"/>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="13"/>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
         <v>101</v>
       </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H24">
+      <c r="G23" s="6">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="H23" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J24">
-        <f>G24*(IF(H24=0,0,1)+I24/2^$B$6)*2^(IF(H24=0,1,H24)+1-2^($B$5-1))</f>
+      <c r="I23" s="6">
+        <f>F23*(IF(G23=0,0,1)+H23/2^$M$11)*2^(IF(G23=0,1,G23)+1-2^($M$10-1))</f>
         <v>4</v>
       </c>
-      <c r="K24">
+      <c r="J23" s="6">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C25" s="5"/>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
         <v>101</v>
       </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H25">
+      <c r="G24" s="6">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I25">
+      <c r="H24" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J25">
-        <f>G25*(IF(H25=0,0,1)+I25/2^$B$6)*2^(IF(H25=0,1,H25)+1-2^($B$5-1))</f>
+      <c r="I24" s="6">
+        <f>F24*(IF(G24=0,0,1)+H24/2^$M$11)*2^(IF(G24=0,1,G24)+1-2^($M$10-1))</f>
         <v>5</v>
       </c>
-      <c r="K25">
+      <c r="J24" s="6">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C26" s="5"/>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
         <v>101</v>
       </c>
-      <c r="F26" s="2">
+      <c r="E25" s="8">
         <v>10</v>
       </c>
-      <c r="G26">
+      <c r="F25" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H26">
+      <c r="G25" s="6">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I26">
+      <c r="H25" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J26">
-        <f>G26*(IF(H26=0,0,1)+I26/2^$B$6)*2^(IF(H26=0,1,H26)+1-2^($B$5-1))</f>
+      <c r="I25" s="6">
+        <f>F25*(IF(G25=0,0,1)+H25/2^$M$11)*2^(IF(G25=0,1,G25)+1-2^($M$10-1))</f>
         <v>6</v>
       </c>
-      <c r="K26">
+      <c r="J25" s="6">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="5"/>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="13"/>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
         <v>101</v>
       </c>
-      <c r="F27" s="2">
+      <c r="E26" s="8">
         <v>11</v>
       </c>
-      <c r="G27">
-        <f t="shared" ref="G27:G40" si="8">IF(D27&lt;1,1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ref="H27:H40" si="9">BIN2DEC(E27)</f>
+      <c r="F26" s="6">
+        <f t="shared" ref="F26:F34" si="8">IF(C26&lt;1,1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" ref="G26:G34" si="9">BIN2DEC(D26)</f>
         <v>5</v>
       </c>
-      <c r="I27">
-        <f t="shared" ref="I27:I40" si="10">BIN2DEC(F27)</f>
+      <c r="H26" s="6">
+        <f t="shared" ref="H26:H34" si="10">BIN2DEC(E26)</f>
         <v>3</v>
       </c>
-      <c r="J27">
-        <f>G27*(IF(H27=0,0,1)+I27/2^$B$6)*2^(IF(H27=0,1,H27)+1-2^($B$5-1))</f>
+      <c r="I26" s="6">
+        <f>F26*(IF(G26=0,0,1)+H26/2^$M$11)*2^(IF(G26=0,1,G26)+1-2^($M$10-1))</f>
         <v>7</v>
       </c>
-      <c r="K27">
+      <c r="J26" s="6">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C28" s="5"/>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="13"/>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
         <v>110</v>
       </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H28">
+      <c r="G27" s="6">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="I28">
+      <c r="H27" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J28">
-        <f>G28*(IF(H28=0,0,1)+I28/2^$B$6)*2^(IF(H28=0,1,H28)+1-2^($B$5-1))</f>
+      <c r="I27" s="6">
+        <f>F27*(IF(G27=0,0,1)+H27/2^$M$11)*2^(IF(G27=0,1,G27)+1-2^($M$10-1))</f>
         <v>8</v>
       </c>
-      <c r="K28">
+      <c r="J27" s="6">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C29" s="5"/>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
         <v>110</v>
       </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H29">
+      <c r="G28" s="6">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="I29">
+      <c r="H28" s="6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J29">
-        <f>G29*(IF(H29=0,0,1)+I29/2^$B$6)*2^(IF(H29=0,1,H29)+1-2^($B$5-1))</f>
+      <c r="I28" s="6">
+        <f>F28*(IF(G28=0,0,1)+H28/2^$M$11)*2^(IF(G28=0,1,G28)+1-2^($M$10-1))</f>
         <v>10</v>
       </c>
-      <c r="K29">
+      <c r="J28" s="6">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C30" s="5"/>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="13"/>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
         <v>110</v>
       </c>
-      <c r="F30" s="2">
+      <c r="E29" s="8">
         <v>10</v>
       </c>
-      <c r="G30">
+      <c r="F29" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H30">
+      <c r="G29" s="6">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="I30">
+      <c r="H29" s="6">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="J30">
-        <f>G30*(IF(H30=0,0,1)+I30/2^$B$6)*2^(IF(H30=0,1,H30)+1-2^($B$5-1))</f>
+      <c r="I29" s="6">
+        <f>F29*(IF(G29=0,0,1)+H29/2^$M$11)*2^(IF(G29=0,1,G29)+1-2^($M$10-1))</f>
         <v>12</v>
       </c>
-      <c r="K30">
+      <c r="J29" s="6">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C31" s="5"/>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="14"/>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
         <v>110</v>
       </c>
-      <c r="F31" s="2">
+      <c r="E30" s="8">
         <v>11</v>
       </c>
-      <c r="G31">
+      <c r="F30" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="G30" s="6">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="I31">
+      <c r="H30" s="6">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="J31">
-        <f>G31*(IF(H31=0,0,1)+I31/2^$B$6)*2^(IF(H31=0,1,H31)+1-2^($B$5-1))</f>
+      <c r="I30" s="6">
+        <f>F30*(IF(G30=0,0,1)+H30/2^$M$11)*2^(IF(G30=0,1,G30)+1-2^($M$10-1))</f>
         <v>14</v>
       </c>
-      <c r="K31">
+      <c r="J30" s="6">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C32" s="3" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
         <v>111</v>
       </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H32">
+      <c r="G31" s="6">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="I32">
+      <c r="H31" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J32">
-        <f>G32*(IF(H32=0,0,1)+I32/2^$B$6)*2^(IF(H32=0,1,H32)+1-2^($B$5-1))</f>
+      <c r="I31" s="6">
+        <f>F31*(IF(G31=0,0,1)+H31/2^$M$11)*2^(IF(G31=0,1,G31)+1-2^($M$10-1))</f>
         <v>16</v>
       </c>
-      <c r="K32">
+      <c r="J31" s="6">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C33" s="4" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
         <v>111</v>
       </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33">
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H33">
+      <c r="G32" s="6">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="I33">
+      <c r="H32" s="6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J33">
-        <f>G33*(IF(H33=0,0,1)+I33/2^$B$6)*2^(IF(H33=0,1,H33)+1-2^($B$5-1))</f>
+      <c r="I32" s="6">
+        <f>F32*(IF(G32=0,0,1)+H32/2^$M$11)*2^(IF(G32=0,1,G32)+1-2^($M$10-1))</f>
         <v>20</v>
       </c>
-      <c r="K33">
+      <c r="J32" s="6">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C34" s="4"/>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="10"/>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
         <v>111</v>
       </c>
-      <c r="F34" s="2">
+      <c r="E33" s="8">
         <v>10</v>
       </c>
-      <c r="G34">
+      <c r="F33" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H34">
+      <c r="G33" s="6">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="I34">
+      <c r="H33" s="6">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="J34">
-        <f>G34*(IF(H34=0,0,1)+I34/2^$B$6)*2^(IF(H34=0,1,H34)+1-2^($B$5-1))</f>
+      <c r="I33" s="6">
+        <f>F33*(IF(G33=0,0,1)+H33/2^$M$11)*2^(IF(G33=0,1,G33)+1-2^($M$10-1))</f>
         <v>24</v>
       </c>
-      <c r="K34">
+      <c r="J33" s="6">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C35" s="4"/>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="11"/>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
         <v>111</v>
       </c>
-      <c r="F35" s="2">
+      <c r="E34" s="8">
         <v>11</v>
       </c>
-      <c r="G35">
+      <c r="F34" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H35">
+      <c r="G34" s="6">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="I35">
+      <c r="H34" s="6">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="J35">
-        <f>G35*(IF(H35=0,0,1)+I35/2^$B$6)*2^(IF(H35=0,1,H35)+1-2^($B$5-1))</f>
+      <c r="I34" s="6">
+        <f>F34*(IF(G34=0,0,1)+H34/2^$M$11)*2^(IF(G34=0,1,G34)+1-2^($M$10-1))</f>
         <v>28</v>
       </c>
-      <c r="K35">
+      <c r="J34" s="6">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C31"/>
-    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B30"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Encodage des Float.xlsx
+++ b/Encodage des Float.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="3340" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="24920" yWindow="2460" windowWidth="25660" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>sign</t>
   </si>
@@ -92,9 +92,6 @@
     <t>(1 + mantissa / 2^numMantissaBits) x 2^(exponent + 1 - 2^(numExponentBits - 1))</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>long double</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -207,27 +207,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,8 +262,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -266,7 +303,7 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="1" name=" "/>
     <tableColumn id="2" name="exponent"/>
     <tableColumn id="3" name="mantissa"/>
     <tableColumn id="4" name="usage"/>
@@ -541,7 +578,7 @@
   <dimension ref="B2:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,30 +601,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="4"/>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -603,32 +640,32 @@
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
         <f t="shared" ref="F3:F6" si="0">IF(C3&lt;1,1,-1)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G6" si="1">BIN2DEC(D3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f t="shared" ref="H3:H6" si="2">BIN2DEC(E3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f>F3*(IF(G3=0,0,1)+H3/2^$M$11)*2^(IF(G3=0,1,G3)+1-2^($M$10-1))</f>
         <v>0</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J6" si="3">_xlfn.FLOOR.PRECISE(I3,0.1)</f>
         <v>0</v>
       </c>
@@ -647,32 +684,32 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f>F4*(IF(G4=0,0,1)+H4/2^$M$11)*2^(IF(G4=0,1,G4)+1-2^($M$10-1))</f>
         <v>6.25E-2</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -691,32 +728,32 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
         <v>10</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f>F5*(IF(G5=0,0,1)+H5/2^$M$11)*2^(IF(G5=0,1,G5)+1-2^($M$10-1))</f>
         <v>0.125</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
@@ -733,34 +770,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
         <v>11</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="12">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="12">
         <f>F6*(IF(G6=0,0,1)+H6/2^$M$11)*2^(IF(G6=0,1,G6)+1-2^($M$10-1))</f>
         <v>0.1875</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="12">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
@@ -777,972 +814,964 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="2:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
         <f>IF(C7&lt;1,1,-1)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="16">
         <f>BIN2DEC(D7)</f>
         <v>1</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="16">
         <f>BIN2DEC(E7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="16">
         <f>F7*(IF(G7=0,0,1)+H7/2^$M$11)*2^(IF(G7=0,1,G7)+1-2^($M$10-1))</f>
         <v>0.25</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="16">
         <f>_xlfn.FLOOR.PRECISE(I7,0.1)</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="B8" s="11"/>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" ref="F8:F25" si="4">IF(C8&lt;1,1,-1)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f t="shared" ref="G8:G25" si="5">BIN2DEC(D8)</f>
         <v>1</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" ref="H8:H25" si="6">BIN2DEC(E8)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f>F8*(IF(G8=0,0,1)+H8/2^$M$11)*2^(IF(G8=0,1,G8)+1-2^($M$10-1))</f>
         <v>0.3125</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f t="shared" ref="J8:J34" si="7">_xlfn.FLOOR.PRECISE(I8,0.1)</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="13"/>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="B9" s="11"/>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
         <v>10</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f>F9*(IF(G9=0,0,1)+H9/2^$M$11)*2^(IF(G9=0,1,G9)+1-2^($M$10-1))</f>
         <v>0.375</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="L9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="B10" s="11"/>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
         <v>11</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f>F10*(IF(G10=0,0,1)+H10/2^$M$11)*2^(IF(G10=0,1,G10)+1-2^($M$10-1))</f>
         <v>0.4375</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="L10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11" s="11"/>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
         <v>10</v>
       </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <f>F11*(IF(G11=0,0,1)+H11/2^$M$11)*2^(IF(G11=0,1,G11)+1-2^($M$10-1))</f>
         <v>0.5</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="11"/>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
         <v>10</v>
       </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f>F12*(IF(G12=0,0,1)+H12/2^$M$11)*2^(IF(G12=0,1,G12)+1-2^($M$10-1))</f>
         <v>0.625</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f t="shared" si="7"/>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13" s="11"/>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
         <v>10</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>10</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <f>F13*(IF(G13=0,0,1)+H13/2^$M$11)*2^(IF(G13=0,1,G13)+1-2^($M$10-1))</f>
         <v>0.75</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <f t="shared" si="7"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="O13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="11"/>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
         <v>10</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>11</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f>F14*(IF(G14=0,0,1)+H14/2^$M$11)*2^(IF(G14=0,1,G14)+1-2^($M$10-1))</f>
         <v>0.875</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="6">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6">
+      <c r="L14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
         <v>8</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B15" s="11"/>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
         <v>11</v>
       </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <f>F15*(IF(G15=0,0,1)+H15/2^$M$11)*2^(IF(G15=0,1,G15)+1-2^($M$10-1))</f>
         <v>1</v>
       </c>
-      <c r="J15" s="6">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="J15" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
         <v>11</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="B16" s="11"/>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
         <v>11</v>
       </c>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f>F16*(IF(G16=0,0,1)+H16/2^$M$11)*2^(IF(G16=0,1,G16)+1-2^($M$10-1))</f>
         <v>1.25</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f t="shared" si="7"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="6">
-        <v>1</v>
-      </c>
-      <c r="N16" s="6">
+      <c r="L16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5">
         <v>15</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="B17" s="11"/>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
         <v>11</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>10</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f>F17*(IF(G17=0,0,1)+H17/2^$M$11)*2^(IF(G17=0,1,G17)+1-2^($M$10-1))</f>
         <v>1.5</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="B18" s="11"/>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
         <v>11</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>11</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f>F18*(IF(G18=0,0,1)+H18/2^$M$11)*2^(IF(G18=0,1,G18)+1-2^($M$10-1))</f>
         <v>1.75</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f t="shared" si="7"/>
         <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="B19" s="11"/>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
         <v>100</v>
       </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <f>F19*(IF(G19=0,0,1)+H19/2^$M$11)*2^(IF(G19=0,1,G19)+1-2^($M$10-1))</f>
         <v>-2</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="B20" s="11"/>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
         <v>100</v>
       </c>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <f>F20*(IF(G20=0,0,1)+H20/2^$M$11)*2^(IF(G20=0,1,G20)+1-2^($M$10-1))</f>
         <v>2.5</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="B21" s="11"/>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
         <v>100</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>10</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <f>F21*(IF(G21=0,0,1)+H21/2^$M$11)*2^(IF(G21=0,1,G21)+1-2^($M$10-1))</f>
         <v>3</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="B22" s="11"/>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
         <v>100</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>11</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <f>F22*(IF(G22=0,0,1)+H22/2^$M$11)*2^(IF(G22=0,1,G22)+1-2^($M$10-1))</f>
         <v>3.5</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="B23" s="11"/>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
         <v>101</v>
       </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <f>F23*(IF(G23=0,0,1)+H23/2^$M$11)*2^(IF(G23=0,1,G23)+1-2^($M$10-1))</f>
         <v>4</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="B24" s="11"/>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
         <v>101</v>
       </c>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <f>F24*(IF(G24=0,0,1)+H24/2^$M$11)*2^(IF(G24=0,1,G24)+1-2^($M$10-1))</f>
         <v>5</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="B25" s="11"/>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
         <v>101</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>10</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f>F25*(IF(G25=0,0,1)+H25/2^$M$11)*2^(IF(G25=0,1,G25)+1-2^($M$10-1))</f>
         <v>6</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="B26" s="11"/>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
         <v>101</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>11</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <f t="shared" ref="F26:F34" si="8">IF(C26&lt;1,1,-1)</f>
         <v>1</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <f t="shared" ref="G26:G34" si="9">BIN2DEC(D26)</f>
         <v>5</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <f t="shared" ref="H26:H34" si="10">BIN2DEC(E26)</f>
         <v>3</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <f>F26*(IF(G26=0,0,1)+H26/2^$M$11)*2^(IF(G26=0,1,G26)+1-2^($M$10-1))</f>
         <v>7</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="B27" s="11"/>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
         <v>110</v>
       </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <f>F27*(IF(G27=0,0,1)+H27/2^$M$11)*2^(IF(G27=0,1,G27)+1-2^($M$10-1))</f>
         <v>8</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="B28" s="11"/>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
         <v>110</v>
       </c>
-      <c r="E28" s="8">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <f>F28*(IF(G28=0,0,1)+H28/2^$M$11)*2^(IF(G28=0,1,G28)+1-2^($M$10-1))</f>
         <v>10</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="B29" s="11"/>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
         <v>110</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>10</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <f>F29*(IF(G29=0,0,1)+H29/2^$M$11)*2^(IF(G29=0,1,G29)+1-2^($M$10-1))</f>
         <v>12</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
         <v>110</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="14">
         <v>11</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="12">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="12">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="12">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="12">
         <f>F30*(IF(G30=0,0,1)+H30/2^$M$11)*2^(IF(G30=0,1,G30)+1-2^($M$10-1))</f>
         <v>14</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="12">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C31" s="20">
+        <v>0</v>
+      </c>
+      <c r="D31" s="21">
         <v>111</v>
       </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="E31" s="22">
+        <v>0</v>
+      </c>
+      <c r="F31" s="20">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="20">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I31" s="6">
-        <f>F31*(IF(G31=0,0,1)+H31/2^$M$11)*2^(IF(G31=0,1,G31)+1-2^($M$10-1))</f>
-        <v>16</v>
-      </c>
-      <c r="J31" s="6">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
+      <c r="I31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="17">
         <v>111</v>
       </c>
-      <c r="E32" s="8">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="16">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="16">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="16">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I32" s="6">
-        <f>F32*(IF(G32=0,0,1)+H32/2^$M$11)*2^(IF(G32=0,1,G32)+1-2^($M$10-1))</f>
+      <c r="I32" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="6">
-        <f t="shared" si="7"/>
+      <c r="J32" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="B33" s="8"/>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
         <v>111</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>10</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I33" s="6">
-        <f>F33*(IF(G33=0,0,1)+H33/2^$M$11)*2^(IF(G33=0,1,G33)+1-2^($M$10-1))</f>
-        <v>24</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="7"/>
-        <v>24</v>
+      <c r="I33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="11"/>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="B34" s="9"/>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
         <v>111</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>11</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="I34" s="6">
-        <f>F34*(IF(G34=0,0,1)+H34/2^$M$11)*2^(IF(G34=0,1,G34)+1-2^($M$10-1))</f>
-        <v>28</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" si="7"/>
-        <v>28</v>
+      <c r="I34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
